--- a/downloaded_files/EPES303_Tutorial-35524.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35524.xlsx
@@ -132,6 +132,15 @@
     <x:t>Seif Alaa Eldin Samir Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman ahmed mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230060</x:t>
   </x:si>
   <x:si>
@@ -220,15 +229,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمود عبد الرؤف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
   </x:si>
   <x:si>
     <x:t>4240039</x:t>
@@ -1276,7 +1276,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4381296296</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1308,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1340,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.6297919329</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1404,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45917.6297919329</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4522670949</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.958293206</x:v>
+        <x:v>45914.4522670949</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45915.958293206</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/EPES303_Tutorial-35524.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35524.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1230064</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -841,7 +832,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1340,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45917.6297919329</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.6297919329</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45914.4522670949</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4522670949</x:v>
+        <x:v>45915.958293206</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.958293206</x:v>
+        <x:v>45914.401759375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.401759375</x:v>
+        <x:v>45907.4196498843</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4196498843</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45906.6650525463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6650525463</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45927.4336868403</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4199702894</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45927.4255918171</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45906.6699670139</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6699670139</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.4175292477</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4175292477</x:v>
+        <x:v>45914.4807795139</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.4807795139</x:v>
+        <x:v>45914.4080198264</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.4080198264</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2227,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2253,38 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.414475463</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Tutorial-35524.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35524.xlsx
@@ -1555,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.958293206</x:v>
+        <x:v>45927.812806794</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/EPES303_Tutorial-35524.xlsx
+++ b/downloaded_files/EPES303_Tutorial-35524.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220146</x:t>
@@ -524,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2003,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4807795139</x:v>
+        <x:v>45914.4080198264</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.4080198264</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2186,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2212,38 +2203,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45907.414475463</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
